--- a/INTRINSIC ANALYSIS/Impact of Aggregation function.xlsx
+++ b/INTRINSIC ANALYSIS/Impact of Aggregation function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9264860a0814b51/Research/SPL systems/VARCOP/INTRINSIC ANALYSIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A4F876-B7C1-B749-9E7E-E965B1C87136}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{40A4F876-B7C1-B749-9E7E-E965B1C87136}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E06751AD-8D8C-004A-920E-A2F5FBA406CE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20980" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -154,12 +154,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,7 +217,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -365,7 +365,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1272830944"/>
@@ -396,6 +396,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rank</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -424,7 +479,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1185182416"/>
@@ -472,7 +527,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -548,7 +603,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -685,7 +740,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1287230496"/>
@@ -716,6 +771,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> EXAM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -744,7 +854,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1287517216"/>
@@ -792,7 +902,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -868,7 +978,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1005,7 +1115,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1270250656"/>
@@ -1036,6 +1146,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rank</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1064,7 +1229,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1270249008"/>
@@ -1105,7 +1270,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1181,7 +1346,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1318,7 +1483,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1272548080"/>
@@ -1349,6 +1514,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rank</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1377,7 +1597,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1272200784"/>
@@ -1425,7 +1645,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1501,7 +1721,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1638,7 +1858,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1272337904"/>
@@ -1669,6 +1889,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> EXAM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1697,7 +1972,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1272128704"/>
@@ -1738,7 +2013,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1814,7 +2089,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1951,7 +2226,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1271812400"/>
@@ -1982,6 +2257,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rank</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2010,7 +2340,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1271274640"/>
@@ -2051,7 +2381,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2127,7 +2457,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2264,7 +2594,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1272125040"/>
@@ -2295,6 +2625,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>EXAM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2323,7 +2708,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1272960368"/>
@@ -2364,7 +2749,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2440,7 +2825,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2577,7 +2962,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1272133024"/>
@@ -2608,6 +2993,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rank</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2636,7 +3076,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1272625136"/>
@@ -2677,7 +3117,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2753,7 +3193,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2890,7 +3330,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1260271616"/>
@@ -2921,6 +3361,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> EXAM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2949,7 +3444,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1260269968"/>
@@ -2990,7 +3485,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3066,7 +3561,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3203,7 +3698,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1272254176"/>
@@ -3234,6 +3729,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> Rank</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3262,7 +3812,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1190410544"/>
@@ -3303,7 +3853,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8749,15 +9299,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8784,16 +9334,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9340,67 +9890,67 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10621,7 +11171,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10629,22 +11179,22 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10678,10 +11228,10 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>2.1196905019072299</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>2.0622083964314202</v>
       </c>
       <c r="E3" s="4">
@@ -10708,7 +11258,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10716,22 +11266,22 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10795,7 +11345,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10803,22 +11353,22 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10882,7 +11432,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10890,22 +11440,22 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10969,7 +11519,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10977,22 +11527,22 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
